--- a/Datos/pruebas random/JASP_Datos_r3.xlsx
+++ b/Datos/pruebas random/JASP_Datos_r3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laboratorio25_2\Desktop\Jaime_Lab25\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Jaime_Lab25\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD74"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8011,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="AI21" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ21" s="51">
         <v>1</v>
@@ -9946,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="CI26" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ26" s="45">
         <v>1</v>
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="CI27" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ27" s="45">
         <v>0</v>
@@ -13544,7 +13544,7 @@
         <v>0.46190476190476198</v>
       </c>
       <c r="AH37" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI37" s="51">
         <v>1</v>
@@ -18095,7 +18095,7 @@
         <v>9.8039215686274536E-2</v>
       </c>
       <c r="CH50" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI50" s="45"/>
       <c r="CJ50" s="45"/>
@@ -18426,7 +18426,7 @@
         <v>0.16666666666666671</v>
       </c>
       <c r="CH51" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI51" s="45"/>
       <c r="CJ51" s="45"/>
